--- a/data/trans_orig/P14B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2399F1A6-EBFD-40BF-AFF1-A615C8A3543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{646DB2B4-2F18-418D-B46C-D56B02F6711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43A50E99-B31B-4B54-98C8-53DEFA10A199}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C1573EA-0008-4D31-87D7-B4F7098600CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="321">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>80,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>79,15%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>19,45%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -118,55 +118,55 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -178,19 +178,19 @@
     <t>38,51%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>49,96%</t>
@@ -199,19 +199,19 @@
     <t>61,49%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -220,55 +220,55 @@
     <t>32,37%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>44,32%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>55,68%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>62,3%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -277,55 +277,55 @@
     <t>35,4%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -334,103 +334,109 @@
     <t>41,88%</t>
   </si>
   <si>
-    <t>33,86%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>66,14%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -454,16 +460,16 @@
     <t>40,72%</t>
   </si>
   <si>
-    <t>81,17%</t>
+    <t>88,01%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>57,83%</t>
@@ -472,274 +478,274 @@
     <t>59,28%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>11,99%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>63,26%</t>
+    <t>62,28%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>36,74%</t>
+    <t>37,72%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>10,89%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>89,11%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>77,9%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>31,48%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>68,52%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
@@ -1406,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3664E-A243-467D-902C-9613044489EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B496C30-89F6-4F92-AF43-D8329519AD34}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2308,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>67900</v>
+        <v>67899</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
@@ -2311,7 +2317,7 @@
         <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -2320,13 +2326,13 @@
         <v>108150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -2335,13 +2341,13 @@
         <v>176049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2362,13 @@
         <v>94243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2371,13 +2377,13 @@
         <v>99369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>181</v>
@@ -2386,13 +2392,13 @@
         <v>193612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2410,7 @@
         <v>147</v>
       </c>
       <c r="D21" s="7">
-        <v>162143</v>
+        <v>162142</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -2460,13 +2466,13 @@
         <v>99285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -2475,13 +2481,13 @@
         <v>148174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>229</v>
@@ -2490,13 +2496,13 @@
         <v>247458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2517,13 @@
         <v>154772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -2526,13 +2532,13 @@
         <v>155865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>292</v>
@@ -2541,13 +2547,13 @@
         <v>310638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C9CFB-A2BD-4991-B778-AC7ED63D457E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50722DE7-0A11-415B-A28B-E618409F7E66}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2642,7 +2648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2752,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -2762,13 +2768,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2780,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -2804,20 +2810,20 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2832,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2866,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2898,7 +2904,7 @@
         <v>983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2913,13 +2919,13 @@
         <v>1899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2928,13 +2934,13 @@
         <v>2882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2955,7 @@
         <v>1349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -2964,10 +2970,10 @@
         <v>2764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
@@ -2979,13 +2985,13 @@
         <v>4113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3059,13 @@
         <v>5808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3068,13 +3074,13 @@
         <v>1858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3083,13 +3089,13 @@
         <v>7666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3110,13 @@
         <v>7050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3119,10 +3125,10 @@
         <v>5677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -3134,13 +3140,13 @@
         <v>12728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3214,13 @@
         <v>13064</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3223,13 +3229,13 @@
         <v>5234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3238,13 +3244,13 @@
         <v>18298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>22512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3274,13 +3280,13 @@
         <v>17524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3289,13 +3295,13 @@
         <v>40036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3369,13 @@
         <v>13173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3378,13 +3384,13 @@
         <v>15612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3393,13 +3399,13 @@
         <v>28785</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,10 +3420,10 @@
         <v>50308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>193</v>
@@ -3691,10 +3697,10 @@
         <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -3703,13 +3709,13 @@
         <v>152485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3730,13 @@
         <v>223411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -3739,13 +3745,13 @@
         <v>218999</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>414</v>
@@ -3754,13 +3760,13 @@
         <v>442410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,7 +3822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3737977-7F74-48FC-B29F-2A08BA02AE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F888C16-2EA5-4FD5-A343-5D10CB48A41E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,13 +3966,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3981,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3996,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4015,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4027,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -4042,7 +4048,7 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -4058,13 +4064,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4132,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4180,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4266,13 +4272,13 @@
         <v>1219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4281,13 +4287,13 @@
         <v>1810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4296,13 +4302,13 @@
         <v>3029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,10 +4323,10 @@
         <v>9112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -4332,10 +4338,10 @@
         <v>5348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -4347,13 +4353,13 @@
         <v>14460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4427,13 @@
         <v>9923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4436,13 +4442,13 @@
         <v>2235</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4451,13 +4457,13 @@
         <v>12158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4478,13 @@
         <v>35459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4487,13 +4493,13 @@
         <v>21246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -4502,13 +4508,13 @@
         <v>56706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4582,13 @@
         <v>6534</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4591,13 +4597,13 @@
         <v>8852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4606,13 +4612,13 @@
         <v>15385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4633,13 @@
         <v>69619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -4642,13 +4648,13 @@
         <v>37399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>150</v>
@@ -4657,13 +4663,13 @@
         <v>107019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4737,13 @@
         <v>19006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -4746,13 +4752,13 @@
         <v>46309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -4761,13 +4767,13 @@
         <v>65315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4788,13 @@
         <v>159999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>323</v>
@@ -4797,13 +4803,13 @@
         <v>163283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>565</v>
@@ -4812,13 +4818,13 @@
         <v>323281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4892,13 @@
         <v>36682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -4901,13 +4907,13 @@
         <v>59205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -4916,13 +4922,13 @@
         <v>95887</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4943,13 @@
         <v>279540</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -4952,13 +4958,13 @@
         <v>229253</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>817</v>
@@ -4967,13 +4973,13 @@
         <v>508794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5035,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646DB2B4-2F18-418D-B46C-D56B02F6711A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B63661-AF83-489A-8283-8D26000D5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C1573EA-0008-4D31-87D7-B4F7098600CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDD29D8F-1944-4574-9ABE-8A8CFA224E44}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -91,7 +91,7 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>80,55%</t>
+    <t>81,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>79,15%</t>
   </si>
   <si>
-    <t>19,45%</t>
+    <t>18,52%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -118,55 +118,55 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -178,19 +178,19 @@
     <t>38,51%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>49,96%</t>
@@ -199,19 +199,19 @@
     <t>61,49%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -220,55 +220,49 @@
     <t>32,37%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>49,86%</t>
   </si>
   <si>
     <t>44,32%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>50,14%</t>
   </si>
   <si>
     <t>55,68%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>62,3%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -277,55 +271,55 @@
     <t>35,4%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -334,115 +328,115 @@
     <t>41,88%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
+    <t>Población cuya diabetes le limita en 2016 (Tasa respuesta: 8,45%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -460,16 +454,16 @@
     <t>40,72%</t>
   </si>
   <si>
-    <t>88,01%</t>
+    <t>81,17%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>57,83%</t>
@@ -478,64 +472,64 @@
     <t>59,28%</t>
   </si>
   <si>
-    <t>11,99%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>62,15%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>37,85%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
   </si>
   <si>
     <t>36,72%</t>
@@ -544,31 +538,31 @@
     <t>20,45%</t>
   </si>
   <si>
-    <t>55,46%</t>
+    <t>53,6%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>44,54%</t>
+    <t>46,4%</t>
   </si>
   <si>
     <t>79,55%</t>
@@ -577,67 +571,73 @@
     <t>77,0%</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>10,89%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>89,11%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>22,1%</t>
@@ -646,361 +646,361 @@
     <t>16,62%</t>
   </si>
   <si>
-    <t>27,86%</t>
+    <t>28,08%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>20,19%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>70,79%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>89,37%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B496C30-89F6-4F92-AF43-D8329519AD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C3FF87-247B-45E1-B2C1-1C9C9ABDB89F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,10 +2004,10 @@
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>9519</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2031,13 +2031,13 @@
         <v>18170</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2052,13 @@
         <v>18073</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2067,13 +2067,13 @@
         <v>11958</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -2082,13 +2082,13 @@
         <v>30031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2156,13 +2156,13 @@
         <v>17964</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2171,13 +2171,13 @@
         <v>19647</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2186,13 +2186,13 @@
         <v>37611</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2207,13 @@
         <v>32777</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2222,13 +2222,13 @@
         <v>31523</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2237,13 +2237,13 @@
         <v>64299</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2311,13 +2311,13 @@
         <v>67899</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -2326,13 +2326,13 @@
         <v>108150</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -2341,13 +2341,13 @@
         <v>176049</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2362,13 @@
         <v>94243</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -2377,13 +2377,13 @@
         <v>99369</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>181</v>
@@ -2392,13 +2392,13 @@
         <v>193612</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2466,13 @@
         <v>99285</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -2481,13 +2481,13 @@
         <v>148174</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>229</v>
@@ -2496,13 +2496,13 @@
         <v>247458</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2517,13 @@
         <v>154772</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -2532,13 +2532,13 @@
         <v>155865</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>292</v>
@@ -2547,13 +2547,13 @@
         <v>310638</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50722DE7-0A11-415B-A28B-E618409F7E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04813EE-9C54-4799-AB0E-3112FC8E70F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,7 +2648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2758,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -2768,13 +2768,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -2810,20 +2810,20 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2866,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2919,13 +2919,13 @@
         <v>1899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2934,13 +2934,13 @@
         <v>2882</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
         <v>1349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -2970,10 +2970,10 @@
         <v>2764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
@@ -2985,13 +2985,13 @@
         <v>4113</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3059,13 @@
         <v>5808</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3074,13 +3074,13 @@
         <v>1858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3089,13 +3089,13 @@
         <v>7666</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3110,13 @@
         <v>7050</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3125,10 +3125,10 @@
         <v>5677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -3140,13 +3140,13 @@
         <v>12728</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3214,13 @@
         <v>13064</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3229,13 +3229,13 @@
         <v>5234</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3244,13 +3244,13 @@
         <v>18298</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>22512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3280,13 +3280,13 @@
         <v>17524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3295,13 +3295,13 @@
         <v>40036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3357,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3369,13 @@
         <v>13173</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3384,13 +3384,13 @@
         <v>15612</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3399,13 +3399,13 @@
         <v>28785</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,10 +3420,10 @@
         <v>50308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>193</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F888C16-2EA5-4FD5-A343-5D10CB48A41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B34274-64A3-44C0-A2E0-6BEDD74C5E86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3966,13 +3966,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4015,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -4048,7 +4048,7 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -4064,13 +4064,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4895,10 +4895,10 @@
         <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -4907,7 +4907,7 @@
         <v>59205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>308</v>
@@ -4949,7 +4949,7 @@
         <v>314</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -4958,7 +4958,7 @@
         <v>229253</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>316</v>
@@ -4970,7 +4970,7 @@
         <v>817</v>
       </c>
       <c r="N23" s="7">
-        <v>508794</v>
+        <v>508793</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>318</v>
@@ -5021,7 +5021,7 @@
         <v>967</v>
       </c>
       <c r="N24" s="7">
-        <v>604681</v>
+        <v>604680</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>20</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
